--- a/www/IndicatorsPerCountry/Cuba_UniversitiesFounded_TerritorialRef_1946_2012_CCode_192.xlsx
+++ b/www/IndicatorsPerCountry/Cuba_UniversitiesFounded_TerritorialRef_1946_2012_CCode_192.xlsx
@@ -72,13 +72,13 @@
     <t>Foldvari, Peter (2015). Universities Founded. http://hdl.handle.net/10622/KVRJPW, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KVRJPW.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KVRJPW.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KVRJPW.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KVRJPW.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KVRJPW.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KVRJPW.bib</t>
   </si>
 </sst>
 </file>
